--- a/biology/Zoologie/Hierophis_andreanus/Hierophis_andreanus.xlsx
+++ b/biology/Zoologie/Hierophis_andreanus/Hierophis_andreanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hierophis andreanus est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hierophis andreanus est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud des monts Zagros en Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud des monts Zagros en Iran.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Werner indique que les spécimens en sa possession, un mâle et une femelle, mesurent, pour le mâle, 60 cm dont 15,5 cm pour la queue, et, pour la femelle, 75 cm dont 16,5 cm pour la queue.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Werner indique que les spécimens en sa possession, un mâle et une femelle, mesurent, pour le mâle, 60 cm dont 15,5 cm pour la queue, et, pour la femelle, 75 cm dont 16,5 cm pour la queue.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Werner, 1917 : Reptilien aus Persien (Provinz Fars). Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 67, p. 191-220 (texte intégral).</t>
         </is>
